--- a/ML/ML_files/2014_NOV.xlsx
+++ b/ML/ML_files/2014_NOV.xlsx
@@ -465,7 +465,7 @@
         <v>105954</v>
       </c>
       <c r="J2">
-        <v>67.21124261471959</v>
+        <v>67.2112426147196</v>
       </c>
       <c r="K2">
         <v>825</v>
@@ -1012,7 +1012,7 @@
         <v>1576</v>
       </c>
       <c r="M15">
-        <v>48.28680203045685</v>
+        <v>48.28680203045686</v>
       </c>
       <c r="N15">
         <v>14</v>
@@ -1317,7 +1317,7 @@
         <v>42628</v>
       </c>
       <c r="G23">
-        <v>105.060054424322</v>
+        <v>105.0600544243221</v>
       </c>
       <c r="H23">
         <v>355757</v>
@@ -1746,7 +1746,7 @@
         <v>14671</v>
       </c>
       <c r="M32">
-        <v>11.26712562197532</v>
+        <v>11.26712562197533</v>
       </c>
       <c r="N32">
         <v>131</v>
@@ -2525,7 +2525,7 @@
         <v>181803</v>
       </c>
       <c r="D49">
-        <v>79.54214176883769</v>
+        <v>79.5421417688377</v>
       </c>
       <c r="E49">
         <v>1195</v>
@@ -2543,7 +2543,7 @@
         <v>181803</v>
       </c>
       <c r="J49">
-        <v>79.54214176883769</v>
+        <v>79.5421417688377</v>
       </c>
       <c r="K49">
         <v>76122</v>
@@ -2712,7 +2712,7 @@
         <v>98350</v>
       </c>
       <c r="G53">
-        <v>93.18556176919166</v>
+        <v>93.18556176919167</v>
       </c>
       <c r="H53">
         <v>1117033</v>
@@ -3014,7 +3014,7 @@
         <v>336736</v>
       </c>
       <c r="D61">
-        <v>56.16625487028413</v>
+        <v>56.16625487028414</v>
       </c>
       <c r="E61">
         <v>23358</v>
@@ -3681,7 +3681,7 @@
         <v>123264</v>
       </c>
       <c r="J77">
-        <v>149.3517977673935</v>
+        <v>149.3517977673936</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>23901997</v>
       </c>
       <c r="D89">
-        <v>103.9611418242584</v>
+        <v>103.9611418242585</v>
       </c>
       <c r="E89">
         <v>2249903</v>
@@ -4894,7 +4894,7 @@
         <v>9319077</v>
       </c>
       <c r="D105">
-        <v>102.9744576635647</v>
+        <v>102.9744576635648</v>
       </c>
       <c r="E105">
         <v>1202024</v>
@@ -5539,7 +5539,7 @@
         <v>337356</v>
       </c>
       <c r="G118">
-        <v>69.26451582304747</v>
+        <v>69.26451582304748</v>
       </c>
       <c r="H118">
         <v>4487443</v>
@@ -5739,7 +5739,7 @@
         <v>1533027</v>
       </c>
       <c r="J122">
-        <v>152.4761794802048</v>
+        <v>152.4761794802049</v>
       </c>
       <c r="K122">
         <v>5218</v>
@@ -5837,7 +5837,7 @@
         <v>311135</v>
       </c>
       <c r="M124">
-        <v>90.72717630610506</v>
+        <v>90.72717630610507</v>
       </c>
       <c r="N124">
         <v>321</v>
@@ -6668,7 +6668,7 @@
         <v>4291657</v>
       </c>
       <c r="J142">
-        <v>92.81447701901619</v>
+        <v>92.8144770190162</v>
       </c>
       <c r="K142">
         <v>664099</v>
@@ -7128,7 +7128,7 @@
         <v>830449</v>
       </c>
       <c r="M152">
-        <v>134.9648202358001</v>
+        <v>134.9648202358002</v>
       </c>
       <c r="N152">
         <v>1732</v>
@@ -7654,7 +7654,7 @@
         <v>40753</v>
       </c>
       <c r="M165">
-        <v>65.87245110789389</v>
+        <v>65.8724511078939</v>
       </c>
     </row>
     <row r="166">
@@ -7928,7 +7928,7 @@
         <v>36653</v>
       </c>
       <c r="D172">
-        <v>130.5732136523613</v>
+        <v>130.5732136523614</v>
       </c>
       <c r="E172">
         <v>5440</v>
@@ -7981,7 +7981,7 @@
         <v>2091090</v>
       </c>
       <c r="D174">
-        <v>138.1058682314008</v>
+        <v>138.1058682314009</v>
       </c>
       <c r="E174">
         <v>279798</v>
@@ -7990,7 +7990,7 @@
         <v>300466</v>
       </c>
       <c r="G174">
-        <v>93.12135150066896</v>
+        <v>93.12135150066897</v>
       </c>
       <c r="H174">
         <v>3097512</v>
@@ -8034,7 +8034,7 @@
         <v>43145</v>
       </c>
       <c r="D176">
-        <v>118.1133387414532</v>
+        <v>118.1133387414533</v>
       </c>
       <c r="E176">
         <v>4412</v>
@@ -8052,7 +8052,7 @@
         <v>43145</v>
       </c>
       <c r="J176">
-        <v>118.1133387414532</v>
+        <v>118.1133387414533</v>
       </c>
       <c r="K176">
         <v>0</v>
@@ -8089,7 +8089,7 @@
         <v>162403</v>
       </c>
       <c r="G177">
-        <v>39.63904607673503</v>
+        <v>39.63904607673504</v>
       </c>
       <c r="H177">
         <v>738933</v>
@@ -8633,7 +8633,7 @@
         <v>749771.7</v>
       </c>
       <c r="C190">
-        <v>786816.3</v>
+        <v>786816.3000000001</v>
       </c>
       <c r="D190">
         <v>95.29183622657537</v>
